--- a/medicine/Enfance/Capitaine_Bonhomme_(personnage)/Capitaine_Bonhomme_(personnage).xlsx
+++ b/medicine/Enfance/Capitaine_Bonhomme_(personnage)/Capitaine_Bonhomme_(personnage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Capitaine Bonhomme est une œuvre littéraire pour la jeunesse créée par Michel Noël ( Jean-Noel Croteau), comédien et écrivain.
@@ -512,16 +524,18 @@
           <t>Biographie du Capitaine Jean Yannick William Nicolas Bonhomme, B.B.Q - D.V.O.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Noël a créé pour son personnage du Capitaine Bonhomme un passé riche en exploits[1].
-En 1922, sur la côte du Pacifique chez les Haidas, il rencontre l'amérindien Haida, Petit Renard. Celui-ci n'a que 10 ans, mais sa force herculéenne étonne tout le monde[2].
-En 1945, au Maroc, il rencontre son cousin Alfred Hans Van Smith, aujourd'hui célèbre sous le nom de "Freddy Washington"[2].
-En 1955, lors de ses aventures dans les Caraïbes et plus précisément à la Martinique, le capitaine se lie d'amitié avec un couple d'aubergistes.  La mère est française et le père Martiniquais.  Ces derniers perdront la vie au cours de cette histoire et le capitaine adoptera leur fille, Mademoiselle Tits-Oiseaux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Noël a créé pour son personnage du Capitaine Bonhomme un passé riche en exploits.
+En 1922, sur la côte du Pacifique chez les Haidas, il rencontre l'amérindien Haida, Petit Renard. Celui-ci n'a que 10 ans, mais sa force herculéenne étonne tout le monde.
+En 1945, au Maroc, il rencontre son cousin Alfred Hans Van Smith, aujourd'hui célèbre sous le nom de "Freddy Washington".
+En 1955, lors de ses aventures dans les Caraïbes et plus précisément à la Martinique, le capitaine se lie d'amitié avec un couple d'aubergistes.  La mère est française et le père Martiniquais.  Ces derniers perdront la vie au cours de cette histoire et le capitaine adoptera leur fille, Mademoiselle Tits-Oiseaux.
 De sa création en 1962 jusqu'au milieu des années 1980, le Capitaine Bonhomme a occupé de nombreuses scènes de spectacles et a animé plusieurs séries d'émissions sur le populaire Canal 10 Télé-Métropole. Pendant longtemps, il a partagé l'écran avec ses amis Gilles Latulippe, Olivier Guimond, Fernand Gignac (son chanteur préféré), l'Oncle Pierre, et finalement avec son bon ami « Roger Gosselin mon cher », à l'émission Samedi Midi.
 Il a beaucoup contribué à populariser le terme sbire(s) et l'expression les sceptiques seront confondus.
 En 2016, une exposition dédiée au Capitaine Bonhomme a été créée :
-" La Bibliothèque Armand-Cardinal de Mont-Saint-Hilaire vient de recevoir un important don de la famille de Michel Noël et prépare une exposition permanente que le public pourra visiter dès le 24 octobre. Grâce à sa famille, qui a su bien conserver ses archives, Le Capitaine et son équipage accostent à Mont-Saint-Hilaire au grand plaisir de tous."[4]
+" La Bibliothèque Armand-Cardinal de Mont-Saint-Hilaire vient de recevoir un important don de la famille de Michel Noël et prépare une exposition permanente que le public pourra visiter dès le 24 octobre. Grâce à sa famille, qui a su bien conserver ses archives, Le Capitaine et son équipage accostent à Mont-Saint-Hilaire au grand plaisir de tous."
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Émissions jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1962, une première série d'émissions intitulée Capitaine Bonhomme, inspirée de l'œuvre de Michel Noël, est diffusée.
 Le capitaine Bonhomme racontait ses voyages à travers le monde en y ajoutant de nombreuses exagérations.
@@ -558,7 +574,7 @@
 Le capitaine Bonhomme est apparu dans plusieurs autres émissions par la suite : Le Zoo du Capitaine Bonhomme,
 Le Capitaine, Les Récits du capitaine, Le Capitaine, Le cirque du Capitaine, Pour tout l'monde et Samedi midi.
 Il a également fait de nombreuses apparitions publiques sur scène et à la télévision.
-Parmi les graphistes qui ont illustré les aventures du Capitaine Bonhomme sur carton[5], on retrouve Hubert Van de Valle, Bernard Groz, Claude Brie et Pierre Malboeuf[6]. Claude Brie a été le plus prolifique de ce groupe, collaborant avec Michel Noël pendant 8 années consécutives (1973 - 1981) et réalisant plus de 1000 illustrations.
+Parmi les graphistes qui ont illustré les aventures du Capitaine Bonhomme sur carton, on retrouve Hubert Van de Valle, Bernard Groz, Claude Brie et Pierre Malboeuf. Claude Brie a été le plus prolifique de ce groupe, collaborant avec Michel Noël pendant 8 années consécutives (1973 - 1981) et réalisant plus de 1000 illustrations.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1962 : Capitaine Bonhomme (série télévisée) : Capitaine Bonhomme
 1963 - 1968 : Le Zoo du Capitaine Bonhomme (série télévisée) : Capitaine Bonhomme
@@ -595,7 +613,7 @@
 1968 - 1969 : Le Capitaine (série télévisée): Capitaine Bonhomme
 1970 - 1973 : Le cirque du Capitaine (série télévisée) : Capitaine Bonhomme
 1974 - 1977: Pour tout l'monde (série télévisée): Capitaine Bonhomme
-vers 1977 - 1982: Samedi midi[7] (série télévisée): Capitaine Bonhomme</t>
+vers 1977 - 1982: Samedi midi (série télévisée): Capitaine Bonhomme</t>
         </is>
       </c>
     </row>
